--- a/medicine/Pharmacie/Préparateur_en_pharmacie_hospitalière/Préparateur_en_pharmacie_hospitalière.xlsx
+++ b/medicine/Pharmacie/Préparateur_en_pharmacie_hospitalière/Préparateur_en_pharmacie_hospitalière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9parateur_en_pharmacie_hospitali%C3%A8re</t>
+          <t>Préparateur_en_pharmacie_hospitalière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, le préparateur en pharmacie hospitalière (PPH) participe à différentes missions au sein d'une pharmacie à usage intérieur (PUI) :
 Dispensation des médicaments et dispositifs médicaux stériles aux différents services de soins;
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pr%C3%A9parateur_en_pharmacie_hospitali%C3%A8re</t>
+          <t>Préparateur_en_pharmacie_hospitalière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 2001, le diplôme de préparateur en pharmacie hospitalière est homologué de niveau III (soit un niveau bac+2). L'arrêté du 2 août 2006, paru au Journal officiel du 11 août 2006, fixe les nouvelles dispositions relatives à la formation conduisant à ce diplôme, applicables à la rentrée 2007. Cette formation est dite « formation en alternance » entre l’hôpital d’accueil et le lieu théorique de formation.
 Le rythme de l’alternance  varie de 2 à 3 semaines successives en Centre de Formation (enseignement théorique) et 2 à 3 semaines successives sur le terrain (enseignement pratique).
@@ -573,7 +587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pr%C3%A9parateur_en_pharmacie_hospitali%C3%A8re</t>
+          <t>Préparateur_en_pharmacie_hospitalière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -591,7 +605,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">■ Préparateur en pharmacie hospitalière dans les pharmacies à usage intérieur
 ■ Cadre de santé, fonctions d’encadrement et d’enseignement
